--- a/7/2/3/2/Préstamos 2003 a 2021 - Trimestral.xlsx
+++ b/7/2/3/2/Préstamos 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>Serie</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK74"/>
+  <dimension ref="A1:AK75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8925,13 +8928,13 @@
         <v>538</v>
       </c>
       <c r="K74">
-        <v>-156</v>
+        <v>-166</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74">
-        <v>-88</v>
+        <v>-97</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -8940,16 +8943,16 @@
         <v>-68</v>
       </c>
       <c r="P74">
-        <v>-140</v>
+        <v>-144</v>
       </c>
       <c r="Q74">
-        <v>-141</v>
+        <v>-144</v>
       </c>
       <c r="R74">
         <v>0</v>
       </c>
       <c r="S74">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="T74">
         <v>4</v>
@@ -8958,16 +8961,16 @@
         <v>-6</v>
       </c>
       <c r="V74">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="W74">
-        <v>1882</v>
+        <v>1696</v>
       </c>
       <c r="X74">
-        <v>1073</v>
+        <v>1040</v>
       </c>
       <c r="Y74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z74">
         <v>-11</v>
@@ -8976,10 +8979,10 @@
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>817</v>
+        <v>666</v>
       </c>
       <c r="AC74">
-        <v>1768</v>
+        <v>1778</v>
       </c>
       <c r="AD74">
         <v>1700</v>
@@ -8991,19 +8994,132 @@
         <v>-7</v>
       </c>
       <c r="AG74">
+        <v>66</v>
+      </c>
+      <c r="AH74">
+        <v>108</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
+        <v>-15</v>
+      </c>
+      <c r="AK74">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:37">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>6428</v>
+      </c>
+      <c r="G75">
+        <v>6092</v>
+      </c>
+      <c r="H75">
+        <v>-107</v>
+      </c>
+      <c r="I75">
+        <v>673</v>
+      </c>
+      <c r="J75">
+        <v>-229</v>
+      </c>
+      <c r="K75">
+        <v>-58</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>275</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>-333</v>
+      </c>
+      <c r="P75">
+        <v>119</v>
+      </c>
+      <c r="Q75">
+        <v>119</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>-21</v>
+      </c>
+      <c r="T75">
+        <v>4</v>
+      </c>
+      <c r="U75">
+        <v>-7</v>
+      </c>
+      <c r="V75">
+        <v>-17</v>
+      </c>
+      <c r="W75">
+        <v>303</v>
+      </c>
+      <c r="X75">
+        <v>1100</v>
+      </c>
+      <c r="Y75">
+        <v>35</v>
+      </c>
+      <c r="Z75">
+        <v>76</v>
+      </c>
+      <c r="AA75">
+        <v>-56</v>
+      </c>
+      <c r="AB75">
+        <v>-851</v>
+      </c>
+      <c r="AC75">
+        <v>2517</v>
+      </c>
+      <c r="AD75">
+        <v>1746</v>
+      </c>
+      <c r="AE75">
+        <v>-47</v>
+      </c>
+      <c r="AF75">
+        <v>60</v>
+      </c>
+      <c r="AG75">
+        <v>759</v>
+      </c>
+      <c r="AH75">
+        <v>120</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
+        <v>64</v>
+      </c>
+      <c r="AK75">
         <v>56</v>
-      </c>
-      <c r="AH74">
-        <v>242</v>
-      </c>
-      <c r="AI74">
-        <v>0</v>
-      </c>
-      <c r="AJ74">
-        <v>-62</v>
-      </c>
-      <c r="AK74">
-        <v>304</v>
       </c>
     </row>
   </sheetData>
